--- a/Configs/GameConfig/Datas/EnemyLevel.xlsx
+++ b/Configs/GameConfig/Datas/EnemyLevel.xlsx
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H6" sqref="G5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1118,7 +1118,7 @@
         <v>19</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="2:6">
